--- a/AAATR/Mapeos_CLS_AAATR_V1.xlsx
+++ b/AAATR/Mapeos_CLS_AAATR_V1.xlsx
@@ -351,9 +351,6 @@
     <t>COD_CL</t>
   </si>
   <si>
-    <t>CHAR(6)</t>
-  </si>
-  <si>
     <t>NOM_CRO</t>
   </si>
   <si>
@@ -433,6 +430,9 @@
   </si>
   <si>
     <t>Validaciones Generales CLASIFICACIONES_AAATR/ 6. Búsqueda del nombre largo</t>
+  </si>
+  <si>
+    <t>CHAR(15)</t>
   </si>
 </sst>
 </file>
@@ -1431,54 +1431,6 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1495,6 +1447,54 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="85">
@@ -1976,7 +1976,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1986,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H7:H19"/>
+    <sheetView tabSelected="1" topLeftCell="K10" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2024,11 +2024,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
+      <c r="D2" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -2036,11 +2036,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72"/>
+      <c r="D3" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -2048,11 +2048,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -2060,11 +2060,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2076,29 +2076,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="72"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="57" t="s">
+      <c r="M7" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -2150,20 +2150,20 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="73">
+      <c r="B9" s="57">
         <v>1</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="74">
+      <c r="E9" s="58">
         <v>30</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="82" t="s">
+      <c r="F9" s="59"/>
+      <c r="G9" s="66" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="54"/>
@@ -2174,14 +2174,14 @@
         <v>32</v>
       </c>
       <c r="K9" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="80"/>
+        <v>70</v>
+      </c>
+      <c r="L9" s="64"/>
       <c r="M9" s="41">
         <v>5</v>
       </c>
       <c r="N9" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O9" s="45" t="s">
         <v>41</v>
@@ -2201,10 +2201,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="35">
         <v>5</v>
@@ -2223,12 +2223,12 @@
       <c r="K10" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="80"/>
+      <c r="L10" s="64"/>
       <c r="M10" s="25">
         <v>6</v>
       </c>
       <c r="N10" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O10" s="34" t="s">
         <v>19</v>
@@ -2246,10 +2246,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="35">
         <v>30</v>
@@ -2266,12 +2266,12 @@
       <c r="K11" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="80"/>
+      <c r="L11" s="64"/>
       <c r="M11" s="25">
         <v>7</v>
       </c>
       <c r="N11" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O11" s="34" t="s">
         <v>22</v>
@@ -2285,36 +2285,36 @@
       <c r="R11" s="42"/>
     </row>
     <row r="12" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="76">
+      <c r="B12" s="60">
         <v>4</v>
       </c>
-      <c r="C12" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="78">
+      <c r="C12" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="62">
         <v>30</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="83"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="54"/>
       <c r="I12" s="52">
         <v>8</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="80"/>
+        <v>71</v>
+      </c>
+      <c r="L12" s="64"/>
       <c r="M12" s="25">
         <v>8</v>
       </c>
       <c r="N12" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O12" s="34" t="s">
         <v>24</v>
@@ -2333,17 +2333,17 @@
         <v>9</v>
       </c>
       <c r="J13" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="81"/>
+        <v>72</v>
+      </c>
+      <c r="L13" s="65"/>
       <c r="M13" s="25">
         <v>9</v>
       </c>
       <c r="N13" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O13" s="34" t="s">
         <v>42</v>
@@ -2367,12 +2367,12 @@
       <c r="K14" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="81"/>
+      <c r="L14" s="65"/>
       <c r="M14" s="25">
         <v>10</v>
       </c>
       <c r="N14" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O14" s="34" t="s">
         <v>43</v>
@@ -2394,14 +2394,14 @@
         <v>38</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="81"/>
+        <v>60</v>
+      </c>
+      <c r="L15" s="65"/>
       <c r="M15" s="25">
         <v>10</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O15" s="34" t="s">
         <v>44</v>
@@ -2420,17 +2420,17 @@
         <v>12</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="81"/>
+        <v>59</v>
+      </c>
+      <c r="L16" s="65"/>
       <c r="M16" s="25">
         <v>10</v>
       </c>
       <c r="N16" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O16" s="34" t="s">
         <v>45</v>
@@ -2449,17 +2449,17 @@
         <v>13</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="81"/>
+        <v>73</v>
+      </c>
+      <c r="L17" s="65"/>
       <c r="M17" s="25">
         <v>6</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O17" s="34" t="s">
         <v>46</v>
@@ -2478,17 +2478,17 @@
         <v>14</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K18" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18" s="81"/>
+        <v>74</v>
+      </c>
+      <c r="L18" s="65"/>
       <c r="M18" s="25">
         <v>11</v>
       </c>
       <c r="N18" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="34" t="s">
         <v>27</v>
@@ -2507,17 +2507,17 @@
         <v>15</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K19" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="L19" s="81"/>
+        <v>75</v>
+      </c>
+      <c r="L19" s="65"/>
       <c r="M19" s="25">
         <v>12</v>
       </c>
       <c r="N19" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="34" t="s">
         <v>47</v>
@@ -2536,13 +2536,13 @@
         <v>13</v>
       </c>
       <c r="N20" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="34" t="s">
         <v>48</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -2555,10 +2555,10 @@
         <v>14</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P21" s="34" t="s">
         <v>26</v>
@@ -2574,10 +2574,10 @@
         <v>12</v>
       </c>
       <c r="N22" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P22" s="34" t="s">
         <v>25</v>
@@ -2593,13 +2593,13 @@
         <v>3</v>
       </c>
       <c r="N23" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O23" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="34" t="s">
         <v>52</v>
-      </c>
-      <c r="P23" s="34" t="s">
-        <v>53</v>
       </c>
       <c r="Q23" s="34" t="s">
         <v>21</v>
@@ -2612,13 +2612,13 @@
         <v>3</v>
       </c>
       <c r="N24" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O24" s="46" t="s">
         <v>28</v>
       </c>
       <c r="P24" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q24" s="46" t="s">
         <v>21</v>

--- a/AAATR/Mapeos_CLS_AAATR_V1.xlsx
+++ b/AAATR/Mapeos_CLS_AAATR_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -433,6 +433,18 @@
   </si>
   <si>
     <t>CHAR(15)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Proceso</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Proceso (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Default</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
   </si>
 </sst>
 </file>
@@ -607,7 +619,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,6 +763,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1333,7 +1351,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -1496,6 +1514,10 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -1976,7 +1998,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1986,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2456,7 +2478,7 @@
       </c>
       <c r="L17" s="65"/>
       <c r="M17" s="25">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N17" s="34" t="s">
         <v>58</v>
@@ -2484,32 +2506,32 @@
         <v>74</v>
       </c>
       <c r="L18" s="65"/>
-      <c r="M18" s="25">
-        <v>11</v>
-      </c>
-      <c r="N18" s="34" t="s">
+      <c r="M18" s="85">
+        <v>17</v>
+      </c>
+      <c r="N18" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="O18" s="34" t="s">
+      <c r="O18" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="34" t="s">
+      <c r="P18" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="34" t="s">
+      <c r="Q18" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="R18" s="42"/>
+      <c r="R18" s="87"/>
     </row>
-    <row r="19" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="55"/>
-      <c r="I19" s="53">
+    <row r="19" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H19" s="54"/>
+      <c r="I19" s="52">
         <v>15</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="40" t="s">
+      <c r="K19" s="39" t="s">
         <v>75</v>
       </c>
       <c r="L19" s="65"/>
@@ -2531,7 +2553,17 @@
       <c r="R19" s="42"/>
     </row>
     <row r="20" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="52">
+        <v>16</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="65"/>
       <c r="M20" s="25">
         <v>13</v>
       </c>
@@ -2549,8 +2581,18 @@
       </c>
       <c r="R20" s="39"/>
     </row>
-    <row r="21" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L21" s="54"/>
+    <row r="21" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="55"/>
+      <c r="I21" s="53">
+        <v>17</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="65"/>
       <c r="M21" s="38">
         <v>14</v>
       </c>

--- a/AAATR/Mapeos_CLS_AAATR_V1.xlsx
+++ b/AAATR/Mapeos_CLS_AAATR_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="85">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -445,6 +445,18 @@
   </si>
   <si>
     <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Leyenda de colores en destinos</t>
+  </si>
+  <si>
+    <t>Cargados por otra fuente</t>
+  </si>
+  <si>
+    <t>Fecha de fin del registro</t>
+  </si>
+  <si>
+    <t>Fecha de inicio del registro</t>
   </si>
 </sst>
 </file>
@@ -619,7 +631,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -772,8 +784,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1260,6 +1284,17 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1351,7 +1386,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -1466,58 +1501,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -1998,7 +2052,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2008,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2046,48 +2100,68 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="10"/>
+      <c r="H2" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
       <c r="G3" s="10"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
       <c r="G4" s="7"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -2098,29 +2172,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="71"/>
-      <c r="K7" s="72"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="76"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="68" t="s">
+      <c r="M7" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -2477,22 +2551,22 @@
         <v>73</v>
       </c>
       <c r="L17" s="65"/>
-      <c r="M17" s="25">
+      <c r="M17" s="94">
         <v>16</v>
       </c>
-      <c r="N17" s="34" t="s">
+      <c r="N17" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="O17" s="34" t="s">
+      <c r="O17" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="34" t="s">
+      <c r="Q17" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="R17" s="42"/>
+      <c r="R17" s="96"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="54"/>
@@ -2506,22 +2580,22 @@
         <v>74</v>
       </c>
       <c r="L18" s="65"/>
-      <c r="M18" s="85">
+      <c r="M18" s="69">
         <v>17</v>
       </c>
-      <c r="N18" s="86" t="s">
+      <c r="N18" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="O18" s="86" t="s">
+      <c r="O18" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="86" t="s">
+      <c r="P18" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="86" t="s">
+      <c r="Q18" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="R18" s="87"/>
+      <c r="R18" s="71"/>
     </row>
     <row r="19" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H19" s="54"/>
@@ -2589,7 +2663,7 @@
       <c r="J21" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="K21" s="84" t="s">
+      <c r="K21" s="68" t="s">
         <v>80</v>
       </c>
       <c r="L21" s="65"/>
@@ -2668,7 +2742,7 @@
       <c r="R24" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="M7:R7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="B7:G7"/>
@@ -2676,6 +2750,7 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/AAATR/Mapeos_CLS_AAATR_V1.xlsx
+++ b/AAATR/Mapeos_CLS_AAATR_V1.xlsx
@@ -1505,63 +1505,6 @@
     <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1572,6 +1515,63 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2052,7 +2052,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2062,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:R17"/>
+    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2100,30 +2100,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="87"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="91"/>
+      <c r="H3" s="72"/>
       <c r="I3" s="26" t="s">
         <v>82</v>
       </c>
@@ -2134,13 +2134,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="90"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="92"/>
+      <c r="H4" s="73"/>
       <c r="I4" s="26" t="s">
         <v>83</v>
       </c>
@@ -2151,13 +2151,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="90"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="93"/>
+      <c r="H5" s="74"/>
       <c r="I5" s="31" t="s">
         <v>84</v>
       </c>
@@ -2172,29 +2172,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="75"/>
-      <c r="K7" s="76"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="82"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="72" t="s">
+      <c r="M7" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -2551,22 +2551,22 @@
         <v>73</v>
       </c>
       <c r="L17" s="65"/>
-      <c r="M17" s="94">
+      <c r="M17" s="75">
         <v>16</v>
       </c>
-      <c r="N17" s="95" t="s">
+      <c r="N17" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="O17" s="95" t="s">
+      <c r="O17" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="P17" s="95" t="s">
+      <c r="P17" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="95" t="s">
+      <c r="Q17" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="R17" s="96"/>
+      <c r="R17" s="77"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="54"/>
@@ -2706,7 +2706,7 @@
     <row r="23" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L23" s="54"/>
       <c r="M23" s="38">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N23" s="34" t="s">
         <v>58</v>

--- a/AAATR/Mapeos_CLS_AAATR_V1.xlsx
+++ b/AAATR/Mapeos_CLS_AAATR_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -405,9 +405,6 @@
     <t>Busqueda del esquema</t>
   </si>
   <si>
-    <t>Búsqueda de código de clasificación</t>
-  </si>
-  <si>
     <t>Búsqueda del nombre corto</t>
   </si>
   <si>
@@ -423,15 +420,6 @@
     <t>Validaciones Generales CLASIFICACIONES_AAATR/ 3. Búsqueda del id del esquema</t>
   </si>
   <si>
-    <t>Validaciones Generales CLASIFICACIONES_AAATR/ 4. Búsqueda de código de clasificación</t>
-  </si>
-  <si>
-    <t>Validaciones Generales CLASIFICACIONES_AAATR/ 5. Búsqueda del nombre corto</t>
-  </si>
-  <si>
-    <t>Validaciones Generales CLASIFICACIONES_AAATR/ 6. Búsqueda del nombre largo</t>
-  </si>
-  <si>
     <t>CHAR(15)</t>
   </si>
   <si>
@@ -457,6 +445,12 @@
   </si>
   <si>
     <t>Fecha de inicio del registro</t>
+  </si>
+  <si>
+    <t>Validaciones Generales CLASIFICACIONES_AAATR/ 4. Búsqueda del nombre corto</t>
+  </si>
+  <si>
+    <t>Validaciones Generales CLASIFICACIONES_AAATR/ 5. Búsqueda del nombre largo</t>
   </si>
 </sst>
 </file>
@@ -2052,7 +2046,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2062,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2107,7 +2101,7 @@
       <c r="F2" s="87"/>
       <c r="G2" s="10"/>
       <c r="H2" s="94" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I2" s="95"/>
       <c r="J2" s="96"/>
@@ -2125,7 +2119,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="72"/>
       <c r="I3" s="26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J3" s="31"/>
     </row>
@@ -2142,7 +2136,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="73"/>
       <c r="I4" s="26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J4" s="31"/>
     </row>
@@ -2159,7 +2153,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="74"/>
       <c r="I5" s="31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -2270,7 +2264,7 @@
         <v>32</v>
       </c>
       <c r="K9" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L9" s="64"/>
       <c r="M9" s="41">
@@ -2403,7 +2397,7 @@
         <v>65</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="25">
@@ -2432,7 +2426,7 @@
         <v>66</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L13" s="65"/>
       <c r="M13" s="25">
@@ -2542,13 +2536,13 @@
     <row r="17" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H17" s="54"/>
       <c r="I17" s="52">
-        <v>13</v>
-      </c>
-      <c r="J17" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="31" t="s">
         <v>67</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L17" s="65"/>
       <c r="M17" s="75">
@@ -2571,13 +2565,13 @@
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="54"/>
       <c r="I18" s="52">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J18" s="31" t="s">
         <v>68</v>
       </c>
       <c r="K18" s="39" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L18" s="65"/>
       <c r="M18" s="69">
@@ -2600,13 +2594,13 @@
     <row r="19" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H19" s="54"/>
       <c r="I19" s="52">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K19" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L19" s="65"/>
       <c r="M19" s="25">
@@ -2626,20 +2620,20 @@
       </c>
       <c r="R19" s="42"/>
     </row>
-    <row r="20" spans="8:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H20" s="54"/>
-      <c r="I20" s="52">
-        <v>16</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20" s="39" t="s">
-        <v>78</v>
+      <c r="I20" s="53">
+        <v>17</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="68" t="s">
+        <v>76</v>
       </c>
       <c r="L20" s="65"/>
       <c r="M20" s="25">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N20" s="34" t="s">
         <v>58</v>
@@ -2648,7 +2642,7 @@
         <v>48</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -2657,15 +2651,6 @@
     </row>
     <row r="21" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H21" s="55"/>
-      <c r="I21" s="53">
-        <v>17</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" s="68" t="s">
-        <v>80</v>
-      </c>
       <c r="L21" s="65"/>
       <c r="M21" s="38">
         <v>14</v>
